--- a/biology/Botanique/Jardins_d'ici_et_d'ailleurs/Jardins_d'ici_et_d'ailleurs.xlsx
+++ b/biology/Botanique/Jardins_d'ici_et_d'ailleurs/Jardins_d'ici_et_d'ailleurs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardins_d%27ici_et_d%27ailleurs</t>
+          <t>Jardins_d'ici_et_d'ailleurs</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Jardins d'ici et d'ailleurs est une série télévisée documentaire, consacrée à l'art des jardins. Co-produite par Arte, également diffuseur, et Bo Travail!, elle est animée par Jean-Philippe Teyssier.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jardins_d%27ici_et_d%27ailleurs</t>
+          <t>Jardins_d'ici_et_d'ailleurs</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,44 +524,13 @@
           <t>Concept</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Diffusée depuis le printemps 2016 sur Arte, en France, en Allemagne (sous le titre Magische Gärten) et en Italie (sous le titre Giardini fantastici e dove trovarli), la série-documentaire propose de partir à la découverte de jardins aux quatre coins de la planète[1]. Qu'ils soient privés ou publics, les jardins sont racontés d'un point de vue botanique, historique et mettant à l'honneur l'art du paysage.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diffusée depuis le printemps 2016 sur Arte, en France, en Allemagne (sous le titre Magische Gärten) et en Italie (sous le titre Giardini fantastici e dove trovarli), la série-documentaire propose de partir à la découverte de jardins aux quatre coins de la planète. Qu'ils soient privés ou publics, les jardins sont racontés d'un point de vue botanique, historique et mettant à l'honneur l'art du paysage.
 Chaque saison compte 20 documentaires de 26 minutes, et une quatrième est en production. Produite et co-écrite avec Sylvie Steinebach, la série est présentée par Jean-Philippe Teyssier, auteur et  paysagiste diplômé de l'École de Versailles.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Jardins_d%27ici_et_d%27ailleurs</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Jardins_d%27ici_et_d%27ailleurs</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Liste des jardins diffusés</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Saison 1
-Saison 2
-Saison 3
-Saison 4</t>
         </is>
       </c>
     </row>
